--- a/UC-EntityClass.xlsx
+++ b/UC-EntityClass.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\Assignments\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOUDAYOGA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,86 +24,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t xml:space="preserve">Team Name: </t>
   </si>
   <si>
     <t>Project Name:</t>
-  </si>
-  <si>
-    <t>.. and so on</t>
-  </si>
-  <si>
-    <t>add x to link</t>
   </si>
   <si>
     <t>Use Cases/
 Entity Class</t>
   </si>
   <si>
-    <t>class name 1</t>
-  </si>
-  <si>
-    <t>class name 2</t>
-  </si>
-  <si>
-    <t>class name 3</t>
-  </si>
-  <si>
-    <t>class name 4</t>
-  </si>
-  <si>
-    <t>class name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 1</t>
-  </si>
-  <si>
-    <t>use case
-name 2</t>
-  </si>
-  <si>
-    <t>use case
-name 3</t>
-  </si>
-  <si>
-    <t>use case
-name 4</t>
-  </si>
-  <si>
-    <t>use case
-name 5</t>
-  </si>
-  <si>
-    <t>use case
-name 6</t>
-  </si>
-  <si>
-    <t>use case
-name 7</t>
-  </si>
-  <si>
-    <t>use case
-name 8</t>
-  </si>
-  <si>
-    <t>use case
-name 9</t>
-  </si>
-  <si>
-    <t>use case
-name 10</t>
-  </si>
-  <si>
     <t>Use Cases-to-Entity Classs Traceability Matrix</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>RehabPlan</t>
+  </si>
+  <si>
+    <t>AskAPhysio</t>
+  </si>
+  <si>
+    <t>Exercises</t>
+  </si>
+  <si>
+    <t>AssementTest</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Authenticae User</t>
+  </si>
+  <si>
+    <t>Fill-in Assesment Test</t>
+  </si>
+  <si>
+    <t>Book Appointment</t>
+  </si>
+  <si>
+    <t>Upload Images</t>
+  </si>
+  <si>
+    <t>Ask A Physio</t>
+  </si>
+  <si>
+    <t>Assign Rehabilitation Plan</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>View Exercises</t>
+  </si>
+  <si>
+    <t>Make Payment</t>
+  </si>
+  <si>
+    <t>Manage Accounts</t>
+  </si>
+  <si>
+    <t>Manage Questions</t>
+  </si>
+  <si>
+    <t>Manage Rehabilitation Plan</t>
+  </si>
+  <si>
+    <t>Manage Assessment Tests</t>
+  </si>
+  <si>
+    <t>Manage Exercises</t>
+  </si>
+  <si>
+    <t>Generate Report</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Visualize Data Analysis</t>
+  </si>
+  <si>
+    <t>Manage Patient Profiles</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Physiotheropist</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Rubric</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Province</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,31 +213,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,182 +585,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="12.6" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.20703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="17.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.47265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.68359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.05078125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="25.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
